--- a/汽柴煤油2.0/eta/结算价_乙二醇指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/结算价_乙二醇指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4031.2886</v>
+        <v>4324.6422</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4073.75</v>
+        <v>4077.1429</v>
       </c>
       <c r="C3" t="n">
-        <v>4077.8869</v>
+        <v>4160.8586</v>
       </c>
     </row>
     <row r="4">
